--- a/referencias_extras.xlsx
+++ b/referencias_extras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/CursoRutils/inst/minimal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/202103-regressao-linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D2336-605E-CC42-AD04-40BFC18A71B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B84B9-A6D2-1448-A4DE-5E4FB056DCBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39920" yWindow="-100" windowWidth="27500" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29500" yWindow="-40" windowWidth="21440" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>aula</t>
   </si>
@@ -32,13 +32,124 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Ciência de Dados: Fundamentos e Aplicações</t>
+  </si>
+  <si>
+    <t>https://curso-r.github.io/main-regressao-linear/referencias/Ci%C3%AAncia%20de%20Dados.%20Fundamentos%20e%20Aplica%C3%A7%C3%B5es.%20Vers%C3%A3o%20parcial%20preliminar.%20maio%20Pedro%20A.%20Morettin%20Julio%20M.%20Singer.pdf</t>
+  </si>
+  <si>
+    <t>Regressão Linear - Inferência</t>
+  </si>
+  <si>
+    <t>Livro do Gilberto Paula</t>
+  </si>
+  <si>
+    <t>https://www.ime.usp.br/~giapaula/texto_2013.pdf</t>
+  </si>
+  <si>
+    <t>Tese sobre Regressão Linear da Sandra Rodrigues</t>
+  </si>
+  <si>
+    <t>https://ubibliorum.ubi.pt/bitstream/10400.6/1869/1/Tese%20Sandra%20Rodrigues.pdf</t>
+  </si>
+  <si>
+    <t>Aplicação de Regressão Linear Simples</t>
+  </si>
+  <si>
+    <t>https://www.ime.usp.br/~giapaula/slides_exemplo_cfoguete.pdf</t>
+  </si>
+  <si>
+    <t>Introduction to Econometrics with R</t>
+  </si>
+  <si>
+    <t>https://www.econometrics-with-r.org/6-5-the-distribution-of-the-ols-estimators-in-multiple-regression.html</t>
+  </si>
+  <si>
+    <t>Regressão Linear - Predição</t>
+  </si>
+  <si>
+    <t>Aprendizagem de Máquinas: Uma Abordagem Estatística (Rafael Izbicki e Thiago Mendonça, 2020</t>
+  </si>
+  <si>
+    <t>http://www.rizbicki.ufscar.br/AME.pdf</t>
+  </si>
+  <si>
+    <t>Introduction to Statistical Learning (Hastie, et al</t>
+  </si>
+  <si>
+    <t>https://www.ime.unicamp.br/~dias/Intoduction%20to%20Statistical%20Learning.pdf</t>
+  </si>
+  <si>
+    <t>Elements of Statistical Learning (Hastie, et al)</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/~hastie/Papers/ESLII.pdf</t>
+  </si>
+  <si>
+    <t>Computer Age Statistical Inference (Hastie, Efron</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/~hastie/CASI_files/PDF/casi.pdf</t>
+  </si>
+  <si>
+    <t>Tidymodels (Kuhn, et al)</t>
+  </si>
+  <si>
+    <t>https://www.tidymodels.org/</t>
+  </si>
+  <si>
+    <t>Feature Engineering and Selection: A Practical Approach for Predictive Models (Kuhn, Kjell)</t>
+  </si>
+  <si>
+    <t>http://www.feat.engineering/</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/</t>
+  </si>
+  <si>
+    <t>Programação em R</t>
+  </si>
+  <si>
+    <t>https://livro.curso-r.com/</t>
+  </si>
+  <si>
+    <t>Livro da Curso-R (Curso-R)</t>
+  </si>
+  <si>
+    <t>Nosso blog</t>
+  </si>
+  <si>
+    <t>Tidyverse (Wickham, H.)</t>
+  </si>
+  <si>
+    <t>https://www.tidyverse.org/</t>
+  </si>
+  <si>
+    <t>R for Data Science (Wickham, H.)</t>
+  </si>
+  <si>
+    <t>Advanced R (Wickham, H.)</t>
+  </si>
+  <si>
+    <t>https://adv-r.hadley.nz/</t>
+  </si>
+  <si>
+    <t>https://r4ds.had.co.nz/</t>
+  </si>
+  <si>
+    <t>https://curso-r.com/blog/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -48,6 +159,19 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -64,57 +188,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -125,105 +203,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1382,399 +1378,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38" style="4" customWidth="1"/>
+    <col min="4" max="4" width="66" style="4" customWidth="1"/>
+    <col min="5" max="7" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{36C91F65-ECB0-E34B-9CC3-32633BE8A09D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
